--- a/packageGA.xlsx
+++ b/packageGA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CAA6C6-EDF5-4866-818B-DD86C0724C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E5A92A-01EC-43C4-971A-A634A5E02298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4455" yWindow="3570" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
